--- a/RESULTS DATA/results_data.xlsx
+++ b/RESULTS DATA/results_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa205f90bb7cf89a/Desktop/NON-TRIVIAL/PROJECT/RESULTS DATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa205f90bb7cf89a/Desktop/GitHub/RBAIRD/RESULTS DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="302" documentId="8_{94E6B44D-1998-4C2A-AAAB-319BEB1FCFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6E0D573-3FCD-4CB7-AEF5-87360B9DFE8D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="751" xr2:uid="{44241F09-9EC0-4292-9748-6BC845337E63}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="751" activeTab="2" xr2:uid="{44241F09-9EC0-4292-9748-6BC845337E63}"/>
   </bookViews>
   <sheets>
     <sheet name="RESULTS" sheetId="1" r:id="rId1"/>
@@ -23147,10 +23147,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28333,7 +28329,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E61" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E61" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA79" sqref="AA79"/>
     </sheetView>
   </sheetViews>
@@ -35811,7 +35807,7 @@
   </sheetPr>
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
